--- a/res_nodict/resultados_frecuencia_chimal.xlsx
+++ b/res_nodict/resultados_frecuencia_chimal.xlsx
@@ -459,7 +459,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>toma</t>
+          <t>acceso</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -469,7 +469,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>proyectos</t>
+          <t>toma</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -479,7 +479,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>acceso</t>
+          <t>proyectos</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -489,7 +489,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>recursos</t>
+          <t>monitoreo</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -499,7 +499,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>transparencia</t>
+          <t>necesidades</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -509,7 +509,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>datos abiertos</t>
+          <t>confianza</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -519,7 +519,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>decisiones</t>
+          <t>comunidades</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -529,7 +529,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>monitoreo</t>
+          <t>decisiones</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -539,7 +539,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>confianza</t>
+          <t>transparencia</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -549,7 +549,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>comunidades</t>
+          <t>asignación</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -559,7 +559,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>asignación</t>
+          <t>datos abiertos</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -569,7 +569,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>necesidades</t>
+          <t>recursos</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gestión comunitaria</t>
+          <t>participación ciudadana</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -599,7 +599,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>participación ciudadana</t>
+          <t>planificación estratégica</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -609,7 +609,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>planificación estratégica</t>
+          <t>recursos locales</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -619,7 +619,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>recursos locales</t>
+          <t>autoridades</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -629,7 +629,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>recursos públicos</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -639,7 +639,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>autoridades</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -649,7 +649,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>distribución</t>
+          <t>desigualdades</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -659,7 +659,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>desigualdades</t>
+          <t>control transparente</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -669,7 +669,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>control transparente</t>
+          <t>datos públicos</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -689,7 +689,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>datos públicos</t>
+          <t>distribución</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -699,7 +699,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>eficiencia</t>
+          <t>equidad</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -709,7 +709,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>equidad</t>
+          <t>eficiencia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -719,7 +719,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>recursos públicos</t>
+          <t>gestión comunitaria</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -729,7 +729,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rendición</t>
+          <t>cuentas</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -759,7 +759,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>desarrollo equitativo</t>
+          <t>información real</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -839,7 +839,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cuentas</t>
+          <t>rendición</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -849,7 +849,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vigilancia</t>
+          <t>fondos asignados</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -859,7 +859,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>fondos asignados</t>
+          <t>vigilancia</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -869,7 +869,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>igualdad</t>
+          <t>distribución justa</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -879,7 +879,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>distribución justa</t>
+          <t>igualdad</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -889,7 +889,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>participación activa</t>
+          <t>comunidad</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -899,7 +899,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>comunidad</t>
+          <t>participación activa</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -909,7 +909,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>información real</t>
+          <t>desarrollo equitativo</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -937,7 +937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -980,7 +980,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Información</t>
+          <t>información</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1010,7 +1010,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Datos</t>
+          <t>presupuestos</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1020,7 +1020,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>presupuestos</t>
+          <t>ejecución</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1030,7 +1030,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>salud pública</t>
+          <t>salud</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1040,7 +1040,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ejecución</t>
+          <t>datos</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1060,7 +1060,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>desarrollo</t>
+          <t>contratos públicos</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1070,7 +1070,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>salud</t>
+          <t>desarrollo</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1080,7 +1080,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>recursos comunitarios</t>
+          <t>detalles</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1090,7 +1090,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>detalles</t>
+          <t>recursos comunitarios</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1100,7 +1100,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>, salud</t>
+          <t>salud pública</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1110,7 +1110,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Estadísticas</t>
+          <t>, salud</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1120,7 +1120,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>proyectos ejecutados</t>
+          <t>censos demográficos</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1130,7 +1130,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>empleo</t>
+          <t>listados</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1140,7 +1140,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>servicios</t>
+          <t>, estudios</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1150,7 +1150,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>, estudios</t>
+          <t>proyecciones económicas</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1160,7 +1160,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Listados</t>
+          <t>empleo</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1170,7 +1170,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Censos demográficos</t>
+          <t>mapas</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1180,7 +1180,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mapas</t>
+          <t>, datos</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1200,7 +1200,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proyecciones económicas</t>
+          <t>seguridad</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1210,7 +1210,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>, datos</t>
+          <t>proyectos ejecutados</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1220,7 +1220,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>seguridad</t>
+          <t>obras públicas</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1230,7 +1230,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>obras públicas</t>
+          <t>censo poblacional</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1240,7 +1240,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Estudios socioeconómicos</t>
+          <t>fondos</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1250,7 +1250,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fondos</t>
+          <t>progreso</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1260,7 +1260,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>, datos estadísticos</t>
+          <t>, presupuestos</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1270,7 +1270,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>progreso</t>
+          <t>proyectos educativos</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1280,7 +1280,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>, presupuestos</t>
+          <t>proyecciones</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1290,7 +1290,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Contratos públicos</t>
+          <t>estudios socioeconómicos</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1300,7 +1300,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>acceso</t>
+          <t>, datos estadísticos</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1310,7 +1310,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fondos asignados</t>
+          <t>datos económicos</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1320,7 +1320,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Censo poblacional</t>
+          <t>acceso</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1330,7 +1330,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>contratos públicos</t>
+          <t>servicios</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1340,7 +1340,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>proyectos educativos</t>
+          <t>fondos asignados</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1350,30 +1350,10 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Datos económicos</t>
+          <t>recursos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>proyecciones</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>recursos</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
         <v>1</v>
       </c>
     </row>
